--- a/Verify_comm30000.xlsx
+++ b/Verify_comm30000.xlsx
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.371043</v>
+        <v>0.415357</v>
       </c>
       <c r="C2" t="n">
-        <v>2.615216</v>
+        <v>2.742734</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
